--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_5_0.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_5_0.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2544549.459316224</v>
+        <v>-2546997.692395278</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6654055.58283624</v>
+        <v>6654055.582836236</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673431</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -659,10 +659,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>300.3433091295706</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -671,13 +671,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>76.96510530585661</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,7 +704,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481172</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -716,7 +716,7 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -725,7 +725,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>0.9540166513470603</v>
       </c>
     </row>
     <row r="3">
@@ -756,7 +756,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -859,16 +859,16 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>139.8939792152983</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>205.3743261851591</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
@@ -896,22 +896,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>163.939837924303</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -941,28 +941,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>284.6200697443034</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +993,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1057,7 +1057,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1096,10 +1096,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1108,13 +1108,13 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>43.60620160013897</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>118.0056219508405</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>315.9099902864843</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>6.786859782538162</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,28 +1178,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1230,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1333,10 +1333,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1345,13 +1345,13 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>239.5185571033088</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>129.0246247964035</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1376,7 +1376,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722627</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1385,7 +1385,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H11" t="n">
-        <v>294.6077643873205</v>
+        <v>294.6077643873211</v>
       </c>
       <c r="I11" t="n">
         <v>41.57692977292595</v>
@@ -1467,7 +1467,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,10 +1525,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>74.75769145492404</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>113.5103646250815</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1594,7 +1594,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1607,7 +1607,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710079</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1622,10 +1622,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H14" t="n">
-        <v>294.6077643873208</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1658,7 +1658,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T14" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U14" t="n">
         <v>250.995171958902</v>
@@ -1701,10 +1701,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H15" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1762,10 +1762,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>74.75769145492404</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S16" t="n">
         <v>189.7690253314419</v>
@@ -1831,7 +1831,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>126.0955237083901</v>
       </c>
     </row>
     <row r="17">
@@ -1850,7 +1850,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722623</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -2020,7 +2020,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,13 +2047,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
-        <v>219.5489492761692</v>
+        <v>203.4068132192029</v>
       </c>
       <c r="U19" t="n">
         <v>286.2118382056129</v>
@@ -2062,7 +2062,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>85.09628919973957</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2144,7 +2144,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.7311006784694</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2236,10 +2236,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>74.75769145492404</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>189.7690253314419</v>
@@ -2302,7 +2302,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>42.32069823344303</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2336,7 +2336,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2369,7 +2369,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T23" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U23" t="n">
         <v>250.995171958902</v>
@@ -2412,10 +2412,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H24" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I24" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247654</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2476,22 +2476,22 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C25" t="n">
-        <v>120.2716844800353</v>
+        <v>120.2716844800352</v>
       </c>
       <c r="D25" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E25" t="n">
-        <v>99.45882602797661</v>
+        <v>99.45882602797658</v>
       </c>
       <c r="F25" t="n">
-        <v>98.44591140433869</v>
+        <v>98.44591140433866</v>
       </c>
       <c r="G25" t="n">
-        <v>119.0506716404357</v>
+        <v>119.0506716404356</v>
       </c>
       <c r="H25" t="n">
-        <v>97.77987829572822</v>
+        <v>97.7798782957282</v>
       </c>
       <c r="I25" t="n">
         <v>49.37728379124554</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>41.9570160514552</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S25" t="n">
         <v>142.7938887128493</v>
@@ -2713,25 +2713,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C28" t="n">
-        <v>120.2716844800353</v>
+        <v>120.2716844800352</v>
       </c>
       <c r="D28" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E28" t="n">
-        <v>99.45882602797663</v>
+        <v>99.45882602797658</v>
       </c>
       <c r="F28" t="n">
-        <v>98.4459114043387</v>
+        <v>98.44591140433866</v>
       </c>
       <c r="G28" t="n">
-        <v>119.0506716404357</v>
+        <v>119.0506716404356</v>
       </c>
       <c r="H28" t="n">
-        <v>97.77987829572824</v>
+        <v>97.7798782957282</v>
       </c>
       <c r="I28" t="n">
-        <v>49.37728379124555</v>
+        <v>49.37728379124662</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,16 +2758,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>41.95701605145479</v>
+        <v>41.95701605145474</v>
       </c>
       <c r="S28" t="n">
-        <v>142.7938887128494</v>
+        <v>142.7938887128493</v>
       </c>
       <c r="T28" t="n">
         <v>172.5738126575766</v>
       </c>
       <c r="U28" t="n">
-        <v>239.2367015870202</v>
+        <v>239.2367015870203</v>
       </c>
       <c r="V28" t="n">
         <v>205.1625067052354</v>
@@ -2810,7 +2810,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I29" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2843,7 +2843,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T29" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U29" t="n">
         <v>250.995171958902</v>
@@ -2886,10 +2886,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H30" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I30" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -2950,25 +2950,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C31" t="n">
-        <v>120.2716844800353</v>
+        <v>120.2716844800352</v>
       </c>
       <c r="D31" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E31" t="n">
-        <v>99.45882602797663</v>
+        <v>99.45882602797658</v>
       </c>
       <c r="F31" t="n">
-        <v>98.4459114043387</v>
+        <v>98.44591140433866</v>
       </c>
       <c r="G31" t="n">
-        <v>119.0506716404357</v>
+        <v>119.0506716404356</v>
       </c>
       <c r="H31" t="n">
-        <v>97.77987829572824</v>
+        <v>97.77987829572815</v>
       </c>
       <c r="I31" t="n">
-        <v>49.37728379124557</v>
+        <v>49.3772837912455</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.9570160514548</v>
+        <v>41.95701605145476</v>
       </c>
       <c r="S31" t="n">
         <v>142.7938887128493</v>
@@ -3004,7 +3004,7 @@
         <v>172.5738126575766</v>
       </c>
       <c r="U31" t="n">
-        <v>239.2367015870204</v>
+        <v>239.23670158702</v>
       </c>
       <c r="V31" t="n">
         <v>205.1625067052354</v>
@@ -3047,7 +3047,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I32" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3080,7 +3080,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T32" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U32" t="n">
         <v>250.995171958902</v>
@@ -3123,10 +3123,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H33" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I33" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3187,22 +3187,22 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C34" t="n">
-        <v>120.2716844800352</v>
+        <v>120.2716844800353</v>
       </c>
       <c r="D34" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E34" t="n">
-        <v>99.45882602797658</v>
+        <v>99.4588260279766</v>
       </c>
       <c r="F34" t="n">
-        <v>98.44591140433866</v>
+        <v>98.44591140433867</v>
       </c>
       <c r="G34" t="n">
-        <v>119.0506716404356</v>
+        <v>119.0506716404357</v>
       </c>
       <c r="H34" t="n">
-        <v>97.7798782957282</v>
+        <v>97.77987829572821</v>
       </c>
       <c r="I34" t="n">
         <v>49.37728379124551</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.9570160514552</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S34" t="n">
         <v>142.7938887128493</v>
@@ -3241,7 +3241,7 @@
         <v>172.5738126575766</v>
       </c>
       <c r="U34" t="n">
-        <v>239.2367015870198</v>
+        <v>239.2367015870207</v>
       </c>
       <c r="V34" t="n">
         <v>205.1625067052354</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>132.8568435633448</v>
+        <v>132.8568435633447</v>
       </c>
       <c r="C37" t="n">
-        <v>120.2716844800353</v>
+        <v>120.2716844800352</v>
       </c>
       <c r="D37" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E37" t="n">
-        <v>99.45882602797664</v>
+        <v>99.45882602797657</v>
       </c>
       <c r="F37" t="n">
-        <v>98.44591140433872</v>
+        <v>98.44591140433864</v>
       </c>
       <c r="G37" t="n">
-        <v>119.0506716404357</v>
+        <v>119.0506716404356</v>
       </c>
       <c r="H37" t="n">
-        <v>97.77987829572825</v>
+        <v>97.77987829572818</v>
       </c>
       <c r="I37" t="n">
-        <v>49.37728379124557</v>
+        <v>49.37728379124548</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,25 +3472,25 @@
         <v>41.95701605145474</v>
       </c>
       <c r="S37" t="n">
-        <v>142.7938887128494</v>
+        <v>142.7938887128493</v>
       </c>
       <c r="T37" t="n">
-        <v>172.5738126575767</v>
+        <v>172.5738126575766</v>
       </c>
       <c r="U37" t="n">
-        <v>239.2367015870204</v>
+        <v>239.2367015870202</v>
       </c>
       <c r="V37" t="n">
-        <v>205.1625067052355</v>
+        <v>205.1625067052354</v>
       </c>
       <c r="W37" t="n">
-        <v>239.5478617179985</v>
+        <v>239.5478617179984</v>
       </c>
       <c r="X37" t="n">
-        <v>178.7345187704446</v>
+        <v>178.7345187704445</v>
       </c>
       <c r="Y37" t="n">
-        <v>171.6095167335023</v>
+        <v>171.6095167335022</v>
       </c>
     </row>
     <row r="38">
@@ -3512,16 +3512,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417118</v>
       </c>
       <c r="G38" t="n">
-        <v>410.9217256534538</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H38" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3554,7 +3554,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T38" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U38" t="n">
         <v>250.995171958902</v>
@@ -3597,10 +3597,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H39" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I39" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3627,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S39" t="n">
         <v>128.1435076414547</v>
@@ -3664,22 +3664,22 @@
         <v>120.2716844800352</v>
       </c>
       <c r="D40" t="n">
-        <v>101.6403363996198</v>
+        <v>101.6403363996197</v>
       </c>
       <c r="E40" t="n">
-        <v>99.45882602797658</v>
+        <v>99.45882602797656</v>
       </c>
       <c r="F40" t="n">
-        <v>98.44591140433866</v>
+        <v>98.44591140433863</v>
       </c>
       <c r="G40" t="n">
         <v>119.0506716404356</v>
       </c>
       <c r="H40" t="n">
-        <v>97.77987829572818</v>
+        <v>97.77987829572817</v>
       </c>
       <c r="I40" t="n">
-        <v>49.37728379124551</v>
+        <v>49.3772837912455</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.95701605145474</v>
+        <v>41.95701605145473</v>
       </c>
       <c r="S40" t="n">
         <v>142.7938887128493</v>
@@ -3715,7 +3715,7 @@
         <v>172.5738126575766</v>
       </c>
       <c r="U40" t="n">
-        <v>239.2367015870202</v>
+        <v>239.2367015870204</v>
       </c>
       <c r="V40" t="n">
         <v>205.1625067052354</v>
@@ -3724,7 +3724,7 @@
         <v>239.5478617179984</v>
       </c>
       <c r="X40" t="n">
-        <v>178.7345187704446</v>
+        <v>178.7345187704445</v>
       </c>
       <c r="Y40" t="n">
         <v>171.6095167335022</v>
@@ -3743,13 +3743,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206834</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417118</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
         <v>410.9217256534534</v>
@@ -3758,7 +3758,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3791,7 +3791,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T41" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U41" t="n">
         <v>250.995171958902</v>
@@ -3834,10 +3834,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H42" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I42" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3898,22 +3898,22 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C43" t="n">
-        <v>120.2716844800353</v>
+        <v>120.2716844800352</v>
       </c>
       <c r="D43" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E43" t="n">
-        <v>99.45882602797661</v>
+        <v>99.45882602797658</v>
       </c>
       <c r="F43" t="n">
-        <v>98.44591140433869</v>
+        <v>98.44591140433866</v>
       </c>
       <c r="G43" t="n">
-        <v>119.0506716404357</v>
+        <v>119.0506716404356</v>
       </c>
       <c r="H43" t="n">
-        <v>97.77987829572822</v>
+        <v>97.7798782957282</v>
       </c>
       <c r="I43" t="n">
         <v>49.37728379124554</v>
@@ -3943,16 +3943,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.95701605145477</v>
+        <v>41.95701605145476</v>
       </c>
       <c r="S43" t="n">
         <v>142.7938887128497</v>
       </c>
       <c r="T43" t="n">
-        <v>172.5738126575766</v>
+        <v>172.5738126575764</v>
       </c>
       <c r="U43" t="n">
-        <v>239.2367015870202</v>
+        <v>239.2367015870204</v>
       </c>
       <c r="V43" t="n">
         <v>205.1625067052354</v>
@@ -3995,7 +3995,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292587</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4071,10 +4071,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H45" t="n">
-        <v>89.59687541851113</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247739</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,10 +4101,10 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734097636</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S45" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T45" t="n">
         <v>190.7165703189231</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>132.8568435633448</v>
+        <v>132.8568435633447</v>
       </c>
       <c r="C46" t="n">
-        <v>120.2716844800353</v>
+        <v>120.2716844800352</v>
       </c>
       <c r="D46" t="n">
-        <v>101.6403363996199</v>
+        <v>101.6403363996198</v>
       </c>
       <c r="E46" t="n">
-        <v>99.45882602797667</v>
+        <v>99.45882602797658</v>
       </c>
       <c r="F46" t="n">
-        <v>98.44591140433874</v>
+        <v>98.44591140433866</v>
       </c>
       <c r="G46" t="n">
-        <v>119.0506716404357</v>
+        <v>119.0506716404356</v>
       </c>
       <c r="H46" t="n">
-        <v>97.77987829572828</v>
+        <v>97.7798782957282</v>
       </c>
       <c r="I46" t="n">
-        <v>49.37728379124556</v>
+        <v>49.3772837912455</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,28 +4180,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.95701605145479</v>
+        <v>41.95701605145475</v>
       </c>
       <c r="S46" t="n">
-        <v>142.7938887128494</v>
+        <v>142.7938887128493</v>
       </c>
       <c r="T46" t="n">
-        <v>172.5738126575767</v>
+        <v>172.5738126575766</v>
       </c>
       <c r="U46" t="n">
         <v>239.2367015870204</v>
       </c>
       <c r="V46" t="n">
-        <v>205.1625067052355</v>
+        <v>205.1625067052354</v>
       </c>
       <c r="W46" t="n">
-        <v>239.5478617179985</v>
+        <v>239.5478617179984</v>
       </c>
       <c r="X46" t="n">
-        <v>178.7345187704447</v>
+        <v>178.7345187704446</v>
       </c>
       <c r="Y46" t="n">
-        <v>171.6095167335023</v>
+        <v>171.6095167335022</v>
       </c>
     </row>
   </sheetData>
@@ -4304,37 +4304,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>549.649320534154</v>
+        <v>879.7485546945456</v>
       </c>
       <c r="C2" t="n">
-        <v>549.649320534154</v>
+        <v>510.786037754134</v>
       </c>
       <c r="D2" t="n">
-        <v>549.649320534154</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="E2" t="n">
-        <v>549.649320534154</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="F2" t="n">
-        <v>549.649320534154</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="G2" t="n">
-        <v>131.6855124323408</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
-        <v>131.6855124323408</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4364,16 +4364,16 @@
         <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>1662.48357412947</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="W2" t="n">
-        <v>1309.714918859356</v>
+        <v>1640.777806202926</v>
       </c>
       <c r="X2" t="n">
-        <v>936.2491605982757</v>
+        <v>1267.312047941846</v>
       </c>
       <c r="Y2" t="n">
-        <v>936.2491605982757</v>
+        <v>1266.348394758667</v>
       </c>
     </row>
     <row r="3">
@@ -4398,7 +4398,7 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4410,13 +4410,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>266.206002764199</v>
+        <v>266.2060027641987</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598708</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417902</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N3" t="n">
         <v>1748.695370517453</v>
@@ -4492,28 +4492,28 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600561</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R4" t="n">
-        <v>550.5654064942401</v>
+        <v>557.4050153476338</v>
       </c>
       <c r="S4" t="n">
-        <v>550.5654064942401</v>
+        <v>343.1165921657965</v>
       </c>
       <c r="T4" t="n">
         <v>343.1165921657965</v>
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1156.179761166176</v>
+        <v>1714.263756178945</v>
       </c>
       <c r="C5" t="n">
-        <v>1156.179761166176</v>
+        <v>1345.301239238533</v>
       </c>
       <c r="D5" t="n">
-        <v>797.9140625594257</v>
+        <v>1345.301239238533</v>
       </c>
       <c r="E5" t="n">
-        <v>632.3182666762914</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F5" t="n">
-        <v>625.3727659270879</v>
+        <v>548.527081850681</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H5" t="n">
         <v>207.4089578252748</v>
@@ -4568,16 +4568,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4592,25 +4592,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T5" t="n">
-        <v>2247.308246834948</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U5" t="n">
-        <v>2247.308246834948</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V5" t="n">
-        <v>1916.245359491378</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="W5" t="n">
-        <v>1916.245359491378</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="X5" t="n">
-        <v>1542.779601230298</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="Y5" t="n">
-        <v>1542.779601230298</v>
+        <v>2100.863596243066</v>
       </c>
     </row>
     <row r="6">
@@ -4644,13 +4644,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>266.2060027641992</v>
+        <v>266.2060027641994</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598711</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M6" t="n">
         <v>1194.968834417902</v>
@@ -4699,10 +4699,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>204.0596212327002</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>204.0596212327002</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
         <v>53.94298182036445</v>
@@ -4729,46 +4729,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>550.5654064942404</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S7" t="n">
-        <v>550.5654064942404</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="T7" t="n">
-        <v>323.2572191628421</v>
+        <v>352.67413830922</v>
       </c>
       <c r="U7" t="n">
-        <v>323.2572191628421</v>
+        <v>308.6274700262513</v>
       </c>
       <c r="V7" t="n">
-        <v>323.2572191628421</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W7" t="n">
-        <v>204.0596212327002</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X7" t="n">
-        <v>204.0596212327002</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y7" t="n">
-        <v>204.0596212327002</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>902.4179758042681</v>
+        <v>1194.683768698139</v>
       </c>
       <c r="C8" t="n">
-        <v>533.4554588638564</v>
+        <v>825.7212517577275</v>
       </c>
       <c r="D8" t="n">
-        <v>533.4554588638564</v>
+        <v>467.455553150977</v>
       </c>
       <c r="E8" t="n">
-        <v>533.4554588638564</v>
+        <v>81.66730055273274</v>
       </c>
       <c r="F8" t="n">
-        <v>526.5099581146529</v>
+        <v>74.72179980352927</v>
       </c>
       <c r="G8" t="n">
-        <v>207.4089578252748</v>
+        <v>60.79839574212017</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
@@ -4805,16 +4805,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4829,25 +4829,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2247.308246834948</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U8" t="n">
-        <v>1993.54646147304</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V8" t="n">
-        <v>1662.48357412947</v>
+        <v>2311.057514205145</v>
       </c>
       <c r="W8" t="n">
-        <v>1662.48357412947</v>
+        <v>1958.288858935031</v>
       </c>
       <c r="X8" t="n">
-        <v>1289.01781586839</v>
+        <v>1584.823100673951</v>
       </c>
       <c r="Y8" t="n">
-        <v>1289.01781586839</v>
+        <v>1194.683768698139</v>
       </c>
     </row>
     <row r="9">
@@ -4884,10 +4884,10 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>266.2060027641992</v>
+        <v>266.2060027641994</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598711</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M9" t="n">
         <v>1194.968834417902</v>
@@ -4966,37 +4966,37 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064344</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064344</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064344</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="U10" t="n">
-        <v>438.9553738610024</v>
+        <v>308.6274700262513</v>
       </c>
       <c r="V10" t="n">
-        <v>184.2708856551155</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W10" t="n">
         <v>53.94298182036445</v>
@@ -5024,13 +5024,13 @@
         <v>1646.988141143015</v>
       </c>
       <c r="E11" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F11" t="n">
-        <v>850.2139837551622</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G11" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H11" t="n">
         <v>137.5579332089257</v>
@@ -5045,13 +5045,13 @@
         <v>618.2595390972663</v>
       </c>
       <c r="L11" t="n">
-        <v>1482.778354750621</v>
+        <v>1069.293752345675</v>
       </c>
       <c r="M11" t="n">
-        <v>2016.310259422546</v>
+        <v>2047.844055175504</v>
       </c>
       <c r="N11" t="n">
-        <v>2602.177459903277</v>
+        <v>2979.169639353395</v>
       </c>
       <c r="O11" t="n">
         <v>3482.142110232732</v>
@@ -5094,43 +5094,43 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>970.5927724973196</v>
+        <v>970.5927724973203</v>
       </c>
       <c r="C12" t="n">
-        <v>796.1397432161926</v>
+        <v>796.1397432161933</v>
       </c>
       <c r="D12" t="n">
-        <v>647.2053335549414</v>
+        <v>647.2053335549422</v>
       </c>
       <c r="E12" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494866</v>
       </c>
       <c r="F12" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763717</v>
       </c>
       <c r="G12" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089899</v>
       </c>
       <c r="H12" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I12" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J12" t="n">
-        <v>189.2383039390118</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K12" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193594</v>
       </c>
       <c r="L12" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320249</v>
       </c>
       <c r="M12" t="n">
-        <v>1241.47698845434</v>
+        <v>1241.476988454341</v>
       </c>
       <c r="N12" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008796</v>
       </c>
       <c r="O12" t="n">
         <v>2125.96131142685</v>
@@ -5139,7 +5139,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q12" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549553</v>
       </c>
       <c r="R12" t="n">
         <v>2593.958107142068</v>
@@ -5148,16 +5148,16 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T12" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313404</v>
       </c>
       <c r="U12" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.80937344782</v>
       </c>
       <c r="V12" t="n">
-        <v>1808.657265216076</v>
+        <v>1808.657265216077</v>
       </c>
       <c r="W12" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487875</v>
       </c>
       <c r="X12" t="n">
         <v>1346.568408282342</v>
@@ -5173,7 +5173,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>95.56103444839442</v>
+        <v>210.2179684131233</v>
       </c>
       <c r="C13" t="n">
         <v>95.56103444839442</v>
@@ -5242,7 +5242,7 @@
         <v>391.866433243363</v>
       </c>
       <c r="Y13" t="n">
-        <v>171.0738540998329</v>
+        <v>391.866433243363</v>
       </c>
     </row>
     <row r="14">
@@ -5255,19 +5255,19 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C14" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D14" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E14" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F14" t="n">
-        <v>850.2139837551624</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G14" t="n">
-        <v>435.1415336001589</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H14" t="n">
         <v>137.5579332089257</v>
@@ -5282,7 +5282,7 @@
         <v>618.2595390972663</v>
       </c>
       <c r="L14" t="n">
-        <v>1088.893283004706</v>
+        <v>1069.293752345675</v>
       </c>
       <c r="M14" t="n">
         <v>1622.425187676631</v>
@@ -5346,7 +5346,7 @@
         <v>341.4333205763703</v>
       </c>
       <c r="G15" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H15" t="n">
         <v>114.5683260468565</v>
@@ -5355,22 +5355,22 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J15" t="n">
-        <v>189.2383039390115</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K15" t="n">
-        <v>427.5025029193587</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L15" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M15" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N15" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O15" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P15" t="n">
         <v>2436.460902902952</v>
@@ -5410,7 +5410,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>95.56103444839442</v>
+        <v>264.4972173763014</v>
       </c>
       <c r="C16" t="n">
         <v>95.56103444839442</v>
@@ -5437,7 +5437,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K16" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L16" t="n">
         <v>661.2306482927024</v>
@@ -5449,37 +5449,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O16" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P16" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q16" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R16" t="n">
-        <v>1866.513008862232</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S16" t="n">
-        <v>1674.827124689058</v>
+        <v>1674.827124689057</v>
       </c>
       <c r="T16" t="n">
-        <v>1453.060509258584</v>
+        <v>1453.060509258583</v>
       </c>
       <c r="U16" t="n">
-        <v>1163.957642384228</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="V16" t="n">
-        <v>909.2731541783409</v>
+        <v>909.27315417834</v>
       </c>
       <c r="W16" t="n">
-        <v>619.8559841413803</v>
+        <v>619.8559841413794</v>
       </c>
       <c r="X16" t="n">
-        <v>391.866433243363</v>
+        <v>391.8664332433621</v>
       </c>
       <c r="Y16" t="n">
-        <v>171.0738540998329</v>
+        <v>264.4972173763014</v>
       </c>
     </row>
     <row r="17">
@@ -5495,19 +5495,19 @@
         <v>2005.253839749765</v>
       </c>
       <c r="D17" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E17" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F17" t="n">
-        <v>850.2139837551626</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G17" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H17" t="n">
-        <v>137.5579332089264</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I17" t="n">
         <v>95.56103444839442</v>
@@ -5522,7 +5522,7 @@
         <v>1069.293752345675</v>
       </c>
       <c r="M17" t="n">
-        <v>2047.844055175504</v>
+        <v>1622.425187676631</v>
       </c>
       <c r="N17" t="n">
         <v>2602.177459903277</v>
@@ -5568,25 +5568,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C18" t="n">
-        <v>796.1397432161924</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D18" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E18" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F18" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G18" t="n">
-        <v>205.0702204089896</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H18" t="n">
-        <v>114.5683260468573</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I18" t="n">
         <v>95.56103444839442</v>
@@ -5595,37 +5595,37 @@
         <v>189.238303939012</v>
       </c>
       <c r="K18" t="n">
-        <v>427.5025029193591</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L18" t="n">
-        <v>794.2006632320245</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M18" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N18" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O18" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P18" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q18" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R18" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S18" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T18" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U18" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V18" t="n">
         <v>1808.657265216076</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C19" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D19" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E19" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F19" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G19" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H19" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I19" t="n">
         <v>95.56103444839442</v>
@@ -5695,28 +5695,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R19" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S19" t="n">
-        <v>1674.827124689058</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T19" t="n">
-        <v>1453.060509258584</v>
+        <v>1559.196154437386</v>
       </c>
       <c r="U19" t="n">
-        <v>1163.957642384228</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V19" t="n">
-        <v>909.2731541783409</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W19" t="n">
-        <v>823.3173065018362</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X19" t="n">
-        <v>595.3277556038189</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y19" t="n">
-        <v>374.5351764602888</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="20">
@@ -5729,19 +5729,19 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C20" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D20" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E20" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F20" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G20" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H20" t="n">
         <v>137.5579332089257</v>
@@ -5753,13 +5753,13 @@
         <v>284.4401654074198</v>
       </c>
       <c r="K20" t="n">
-        <v>618.2595390972663</v>
+        <v>657.3479225192157</v>
       </c>
       <c r="L20" t="n">
-        <v>1069.293752345675</v>
+        <v>1521.86673817257</v>
       </c>
       <c r="M20" t="n">
-        <v>1622.425187676631</v>
+        <v>2055.398642844495</v>
       </c>
       <c r="N20" t="n">
         <v>2602.177459903277</v>
@@ -5805,19 +5805,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C21" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D21" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E21" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F21" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G21" t="n">
         <v>205.0702204089889</v>
@@ -5829,13 +5829,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J21" t="n">
-        <v>189.2383039390115</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K21" t="n">
-        <v>427.5025029193587</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L21" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M21" t="n">
         <v>1241.47698845434</v>
@@ -5847,22 +5847,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P21" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q21" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R21" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S21" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T21" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U21" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V21" t="n">
         <v>1808.657265216076</v>
@@ -5871,10 +5871,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X21" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y21" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="22">
@@ -5884,7 +5884,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>95.56103444839442</v>
+        <v>264.4972173763014</v>
       </c>
       <c r="C22" t="n">
         <v>95.56103444839442</v>
@@ -5932,28 +5932,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R22" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S22" t="n">
-        <v>1674.827124689058</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T22" t="n">
-        <v>1453.060509258584</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U22" t="n">
-        <v>1163.957642384228</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V22" t="n">
-        <v>909.2731541783409</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W22" t="n">
-        <v>619.8559841413803</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="X22" t="n">
-        <v>391.866433243363</v>
+        <v>666.9382613500712</v>
       </c>
       <c r="Y22" t="n">
-        <v>171.0738540998329</v>
+        <v>446.1456822065411</v>
       </c>
     </row>
     <row r="23">
@@ -5990,22 +5990,22 @@
         <v>284.4401654074198</v>
       </c>
       <c r="K23" t="n">
-        <v>618.2595390972663</v>
+        <v>939.1634975427193</v>
       </c>
       <c r="L23" t="n">
-        <v>1069.293752345675</v>
+        <v>1803.682313196074</v>
       </c>
       <c r="M23" t="n">
-        <v>1622.42518767663</v>
+        <v>2337.214217867998</v>
       </c>
       <c r="N23" t="n">
-        <v>2602.177459903276</v>
+        <v>2883.99303492678</v>
       </c>
       <c r="O23" t="n">
-        <v>3482.142110232731</v>
+        <v>3692.333950986037</v>
       </c>
       <c r="P23" t="n">
-        <v>4195.497197679677</v>
+        <v>4405.689038432983</v>
       </c>
       <c r="Q23" t="n">
         <v>4653.975400188665</v>
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973187</v>
       </c>
       <c r="C24" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161917</v>
       </c>
       <c r="D24" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549405</v>
       </c>
       <c r="E24" t="n">
-        <v>487.9678785494859</v>
+        <v>487.967878549485</v>
       </c>
       <c r="F24" t="n">
-        <v>341.4333205763709</v>
+        <v>341.43332057637</v>
       </c>
       <c r="G24" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089881</v>
       </c>
       <c r="H24" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468556</v>
       </c>
       <c r="I24" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J24" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K24" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L24" t="n">
-        <v>794.2006632320243</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M24" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N24" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O24" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P24" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q24" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549551</v>
       </c>
       <c r="R24" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S24" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T24" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313402</v>
       </c>
       <c r="U24" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V24" t="n">
-        <v>1808.657265216076</v>
+        <v>1808.657265216075</v>
       </c>
       <c r="W24" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487873</v>
       </c>
       <c r="X24" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y24" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="25">
@@ -6121,19 +6121,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>788.515167821505</v>
+        <v>788.5151678215054</v>
       </c>
       <c r="C25" t="n">
-        <v>667.0286178416713</v>
+        <v>667.0286178416718</v>
       </c>
       <c r="D25" t="n">
-        <v>564.361611377409</v>
+        <v>564.3616113774094</v>
       </c>
       <c r="E25" t="n">
-        <v>463.8981507430892</v>
+        <v>463.8981507430896</v>
       </c>
       <c r="F25" t="n">
-        <v>364.4578361932524</v>
+        <v>364.4578361932525</v>
       </c>
       <c r="G25" t="n">
         <v>244.2046325160447</v>
@@ -6145,13 +6145,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J25" t="n">
-        <v>187.1890521477366</v>
+        <v>187.1890521477367</v>
       </c>
       <c r="K25" t="n">
-        <v>437.6816203490196</v>
+        <v>437.6816203490197</v>
       </c>
       <c r="L25" t="n">
-        <v>800.7468040499224</v>
+        <v>800.7468040499223</v>
       </c>
       <c r="M25" t="n">
         <v>1191.409234901878</v>
@@ -6184,13 +6184,13 @@
         <v>1518.56440093796</v>
       </c>
       <c r="W25" t="n">
-        <v>1276.596863849072</v>
+        <v>1276.596863849073</v>
       </c>
       <c r="X25" t="n">
-        <v>1096.056945899128</v>
+        <v>1096.056945899129</v>
       </c>
       <c r="Y25" t="n">
-        <v>922.7139997036713</v>
+        <v>922.7139997036718</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C26" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D26" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E26" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F26" t="n">
-        <v>850.2139837551626</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G26" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H26" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I26" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J26" t="n">
-        <v>284.4401654074198</v>
+        <v>330.2832914301893</v>
       </c>
       <c r="K26" t="n">
-        <v>625.8141267662577</v>
+        <v>985.0066235654888</v>
       </c>
       <c r="L26" t="n">
-        <v>1076.848340014667</v>
+        <v>1849.525439218844</v>
       </c>
       <c r="M26" t="n">
-        <v>2055.398642844495</v>
+        <v>2383.057343890768</v>
       </c>
       <c r="N26" t="n">
-        <v>2602.177459903277</v>
+        <v>3362.809616117415</v>
       </c>
       <c r="O26" t="n">
-        <v>3482.142110232732</v>
+        <v>3865.782086996752</v>
       </c>
       <c r="P26" t="n">
-        <v>4195.497197679678</v>
+        <v>4260.55645335393</v>
       </c>
       <c r="Q26" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R26" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S26" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T26" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U26" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V26" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W26" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X26" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y26" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="27">
@@ -6279,28 +6279,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C27" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D27" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E27" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F27" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G27" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H27" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I27" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J27" t="n">
         <v>189.2383039390118</v>
@@ -6336,7 +6336,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U27" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V27" t="n">
         <v>1808.657265216076</v>
@@ -6345,10 +6345,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X27" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y27" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="28">
@@ -6358,37 +6358,37 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>788.5151678215054</v>
+        <v>788.5151678215063</v>
       </c>
       <c r="C28" t="n">
-        <v>667.0286178416718</v>
+        <v>667.0286178416727</v>
       </c>
       <c r="D28" t="n">
-        <v>564.3616113774094</v>
+        <v>564.3616113774103</v>
       </c>
       <c r="E28" t="n">
-        <v>463.8981507430896</v>
+        <v>463.8981507430905</v>
       </c>
       <c r="F28" t="n">
-        <v>364.4578361932525</v>
+        <v>364.4578361932535</v>
       </c>
       <c r="G28" t="n">
-        <v>244.2046325160447</v>
+        <v>244.2046325160457</v>
       </c>
       <c r="H28" t="n">
-        <v>145.4370786819758</v>
+        <v>145.4370786819769</v>
       </c>
       <c r="I28" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J28" t="n">
         <v>187.1890521477366</v>
       </c>
       <c r="K28" t="n">
-        <v>437.6816203490195</v>
+        <v>437.6816203490197</v>
       </c>
       <c r="L28" t="n">
-        <v>800.7468040499224</v>
+        <v>800.7468040499225</v>
       </c>
       <c r="M28" t="n">
         <v>1191.409234901878</v>
@@ -6403,13 +6403,13 @@
         <v>2204.270866719035</v>
       </c>
       <c r="Q28" t="n">
-        <v>2328.386548123956</v>
+        <v>2328.386548123957</v>
       </c>
       <c r="R28" t="n">
         <v>2286.005723829558</v>
       </c>
       <c r="S28" t="n">
-        <v>2141.769472604457</v>
+        <v>2141.769472604458</v>
       </c>
       <c r="T28" t="n">
         <v>1967.452490122057</v>
@@ -6418,16 +6418,16 @@
         <v>1725.799256195774</v>
       </c>
       <c r="V28" t="n">
-        <v>1518.56440093796</v>
+        <v>1518.564400937961</v>
       </c>
       <c r="W28" t="n">
-        <v>1276.596863849073</v>
+        <v>1276.596863849074</v>
       </c>
       <c r="X28" t="n">
         <v>1096.056945899129</v>
       </c>
       <c r="Y28" t="n">
-        <v>922.7139997036718</v>
+        <v>922.7139997036727</v>
       </c>
     </row>
     <row r="29">
@@ -6452,37 +6452,37 @@
         <v>850.2139837551626</v>
       </c>
       <c r="G29" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H29" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089264</v>
       </c>
       <c r="I29" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J29" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K29" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L29" t="n">
-        <v>1069.293752345675</v>
+        <v>1849.525439218844</v>
       </c>
       <c r="M29" t="n">
-        <v>2047.844055175503</v>
+        <v>2383.057343890769</v>
       </c>
       <c r="N29" t="n">
-        <v>2602.177459903277</v>
+        <v>3362.809616117416</v>
       </c>
       <c r="O29" t="n">
-        <v>3482.142110232732</v>
+        <v>3865.782086996753</v>
       </c>
       <c r="P29" t="n">
-        <v>4195.497197679678</v>
+        <v>4260.556453353931</v>
       </c>
       <c r="Q29" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R29" t="n">
         <v>4778.051722419721</v>
@@ -6516,37 +6516,37 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C30" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D30" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E30" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F30" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G30" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089891</v>
       </c>
       <c r="H30" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I30" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J30" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390116</v>
       </c>
       <c r="K30" t="n">
-        <v>427.5025029193594</v>
+        <v>427.5025029193586</v>
       </c>
       <c r="L30" t="n">
-        <v>794.2006632320247</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M30" t="n">
         <v>1241.47698845434</v>
@@ -6582,10 +6582,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X30" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y30" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="31">
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>788.5151678215052</v>
+        <v>788.5151678215054</v>
       </c>
       <c r="C31" t="n">
-        <v>667.0286178416716</v>
+        <v>667.0286178416718</v>
       </c>
       <c r="D31" t="n">
-        <v>564.3616113774092</v>
+        <v>564.3616113774094</v>
       </c>
       <c r="E31" t="n">
         <v>463.8981507430894</v>
       </c>
       <c r="F31" t="n">
-        <v>364.4578361932525</v>
+        <v>364.4578361932523</v>
       </c>
       <c r="G31" t="n">
-        <v>244.2046325160447</v>
+        <v>244.2046325160446</v>
       </c>
       <c r="H31" t="n">
-        <v>145.4370786819758</v>
+        <v>145.4370786819757</v>
       </c>
       <c r="I31" t="n">
         <v>95.56103444839442</v>
@@ -6622,10 +6622,10 @@
         <v>187.1890521477366</v>
       </c>
       <c r="K31" t="n">
-        <v>437.6816203490196</v>
+        <v>437.6816203490197</v>
       </c>
       <c r="L31" t="n">
-        <v>800.7468040499223</v>
+        <v>800.7468040499224</v>
       </c>
       <c r="M31" t="n">
         <v>1191.409234901878</v>
@@ -6643,13 +6643,13 @@
         <v>2328.386548123956</v>
       </c>
       <c r="R31" t="n">
-        <v>2286.005723829558</v>
+        <v>2286.005723829557</v>
       </c>
       <c r="S31" t="n">
         <v>2141.769472604457</v>
       </c>
       <c r="T31" t="n">
-        <v>1967.452490122057</v>
+        <v>1967.452490122056</v>
       </c>
       <c r="U31" t="n">
         <v>1725.799256195774</v>
@@ -6658,13 +6658,13 @@
         <v>1518.56440093796</v>
       </c>
       <c r="W31" t="n">
-        <v>1276.596863849072</v>
+        <v>1276.596863849073</v>
       </c>
       <c r="X31" t="n">
-        <v>1096.056945899128</v>
+        <v>1096.056945899129</v>
       </c>
       <c r="Y31" t="n">
-        <v>922.7139997036716</v>
+        <v>922.7139997036718</v>
       </c>
     </row>
     <row r="32">
@@ -6686,49 +6686,49 @@
         <v>1261.199888544771</v>
       </c>
       <c r="F32" t="n">
-        <v>850.2139837551634</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G32" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H32" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I32" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J32" t="n">
-        <v>284.4401654074199</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K32" t="n">
-        <v>618.2595390972664</v>
+        <v>1106.569146563072</v>
       </c>
       <c r="L32" t="n">
-        <v>1069.293752345675</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M32" t="n">
-        <v>1622.425187676632</v>
+        <v>2536.153662641309</v>
       </c>
       <c r="N32" t="n">
-        <v>2602.177459903278</v>
+        <v>3082.932479700092</v>
       </c>
       <c r="O32" t="n">
-        <v>3482.142110232733</v>
+        <v>3585.904950579429</v>
       </c>
       <c r="P32" t="n">
-        <v>4195.497197679679</v>
+        <v>4260.556453353931</v>
       </c>
       <c r="Q32" t="n">
-        <v>4653.975400188667</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R32" t="n">
-        <v>4778.051722419722</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S32" t="n">
-        <v>4667.761053946817</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T32" t="n">
-        <v>4461.783306331039</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U32" t="n">
         <v>4208.252829604875</v>
@@ -6753,19 +6753,19 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>970.5927724973199</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C33" t="n">
-        <v>796.1397432161929</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D33" t="n">
-        <v>647.2053335549417</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E33" t="n">
-        <v>487.9678785494862</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F33" t="n">
-        <v>341.4333205763712</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G33" t="n">
         <v>205.070220408989</v>
@@ -6774,16 +6774,16 @@
         <v>114.5683260468565</v>
       </c>
       <c r="I33" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J33" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390123</v>
       </c>
       <c r="K33" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193594</v>
       </c>
       <c r="L33" t="n">
-        <v>794.2006632320245</v>
+        <v>794.2006632320247</v>
       </c>
       <c r="M33" t="n">
         <v>1241.47698845434</v>
@@ -6798,7 +6798,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q33" t="n">
-        <v>2594.102460549553</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R33" t="n">
         <v>2593.958107142068</v>
@@ -6807,7 +6807,7 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T33" t="n">
-        <v>2271.877220313404</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U33" t="n">
         <v>2043.809373447819</v>
@@ -6816,7 +6816,7 @@
         <v>1808.657265216076</v>
       </c>
       <c r="W33" t="n">
-        <v>1554.419908487875</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X33" t="n">
         <v>1346.568408282342</v>
@@ -6832,13 +6832,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>788.5151678215052</v>
+        <v>788.5151678215053</v>
       </c>
       <c r="C34" t="n">
-        <v>667.0286178416716</v>
+        <v>667.0286178416717</v>
       </c>
       <c r="D34" t="n">
-        <v>564.3616113774092</v>
+        <v>564.3616113774093</v>
       </c>
       <c r="E34" t="n">
         <v>463.8981507430894</v>
@@ -6850,13 +6850,13 @@
         <v>244.2046325160447</v>
       </c>
       <c r="H34" t="n">
-        <v>145.4370786819758</v>
+        <v>145.4370786819757</v>
       </c>
       <c r="I34" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J34" t="n">
-        <v>187.1890521477367</v>
+        <v>187.1890521477366</v>
       </c>
       <c r="K34" t="n">
         <v>437.6816203490196</v>
@@ -6880,28 +6880,28 @@
         <v>2328.386548123956</v>
       </c>
       <c r="R34" t="n">
-        <v>2286.005723829557</v>
+        <v>2286.005723829558</v>
       </c>
       <c r="S34" t="n">
         <v>2141.769472604457</v>
       </c>
       <c r="T34" t="n">
-        <v>1967.452490122056</v>
+        <v>1967.452490122057</v>
       </c>
       <c r="U34" t="n">
-        <v>1725.799256195774</v>
+        <v>1725.799256195773</v>
       </c>
       <c r="V34" t="n">
         <v>1518.56440093796</v>
       </c>
       <c r="W34" t="n">
-        <v>1276.596863849072</v>
+        <v>1276.596863849073</v>
       </c>
       <c r="X34" t="n">
-        <v>1096.056945899128</v>
+        <v>1096.056945899129</v>
       </c>
       <c r="Y34" t="n">
-        <v>922.7139997036716</v>
+        <v>922.7139997036718</v>
       </c>
     </row>
     <row r="35">
@@ -6938,19 +6938,19 @@
         <v>284.4401654074198</v>
       </c>
       <c r="K35" t="n">
-        <v>618.2595390972663</v>
+        <v>939.1634975427194</v>
       </c>
       <c r="L35" t="n">
-        <v>1465.885462454824</v>
+        <v>1395.429061104434</v>
       </c>
       <c r="M35" t="n">
-        <v>1999.417367126749</v>
+        <v>2373.979363934262</v>
       </c>
       <c r="N35" t="n">
-        <v>2979.169639353395</v>
+        <v>2920.758180993045</v>
       </c>
       <c r="O35" t="n">
-        <v>3482.142110232732</v>
+        <v>3800.7228313225</v>
       </c>
       <c r="P35" t="n">
         <v>4195.497197679678</v>
@@ -6990,37 +6990,37 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C36" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D36" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E36" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F36" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G36" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089891</v>
       </c>
       <c r="H36" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I36" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J36" t="n">
-        <v>189.2383039390115</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K36" t="n">
-        <v>427.5025029193587</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L36" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M36" t="n">
         <v>1241.47698845434</v>
@@ -7032,22 +7032,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P36" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q36" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R36" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S36" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T36" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U36" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V36" t="n">
         <v>1808.657265216076</v>
@@ -7075,28 +7075,28 @@
         <v>667.0286178416716</v>
       </c>
       <c r="D37" t="n">
-        <v>564.361611377409</v>
+        <v>564.3616113774092</v>
       </c>
       <c r="E37" t="n">
-        <v>463.8981507430892</v>
+        <v>463.8981507430894</v>
       </c>
       <c r="F37" t="n">
-        <v>364.4578361932525</v>
+        <v>364.4578361932524</v>
       </c>
       <c r="G37" t="n">
-        <v>244.2046325160447</v>
+        <v>244.2046325160446</v>
       </c>
       <c r="H37" t="n">
-        <v>145.4370786819758</v>
+        <v>145.4370786819757</v>
       </c>
       <c r="I37" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J37" t="n">
-        <v>187.1890521477366</v>
+        <v>187.1890521477367</v>
       </c>
       <c r="K37" t="n">
-        <v>437.6816203490196</v>
+        <v>437.6816203490197</v>
       </c>
       <c r="L37" t="n">
         <v>800.7468040499223</v>
@@ -7120,25 +7120,25 @@
         <v>2286.005723829558</v>
       </c>
       <c r="S37" t="n">
-        <v>2141.769472604457</v>
+        <v>2141.769472604456</v>
       </c>
       <c r="T37" t="n">
-        <v>1967.452490122057</v>
+        <v>1967.452490122056</v>
       </c>
       <c r="U37" t="n">
-        <v>1725.799256195774</v>
+        <v>1725.799256195773</v>
       </c>
       <c r="V37" t="n">
         <v>1518.56440093796</v>
       </c>
       <c r="W37" t="n">
-        <v>1276.596863849073</v>
+        <v>1276.596863849072</v>
       </c>
       <c r="X37" t="n">
-        <v>1096.056945899129</v>
+        <v>1096.056945899128</v>
       </c>
       <c r="Y37" t="n">
-        <v>922.7139997036717</v>
+        <v>922.7139997036716</v>
       </c>
     </row>
     <row r="38">
@@ -7160,7 +7160,7 @@
         <v>1261.19988854477</v>
       </c>
       <c r="F38" t="n">
-        <v>850.2139837551624</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G38" t="n">
         <v>435.1415336001585</v>
@@ -7172,28 +7172,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J38" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K38" t="n">
-        <v>618.2595390972663</v>
+        <v>785.6651881176192</v>
       </c>
       <c r="L38" t="n">
-        <v>1069.293752345675</v>
+        <v>1650.184003770974</v>
       </c>
       <c r="M38" t="n">
-        <v>1622.425187676631</v>
+        <v>2183.715908442898</v>
       </c>
       <c r="N38" t="n">
-        <v>2602.177459903277</v>
+        <v>2877.428556330836</v>
       </c>
       <c r="O38" t="n">
-        <v>3482.142110232732</v>
+        <v>3757.393206660291</v>
       </c>
       <c r="P38" t="n">
-        <v>4195.497197679678</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q38" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R38" t="n">
         <v>4778.051722419721</v>
@@ -7227,22 +7227,22 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C39" t="n">
-        <v>796.1397432161924</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D39" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E39" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F39" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G39" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H39" t="n">
         <v>114.5683260468565</v>
@@ -7251,13 +7251,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J39" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390123</v>
       </c>
       <c r="K39" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193594</v>
       </c>
       <c r="L39" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320247</v>
       </c>
       <c r="M39" t="n">
         <v>1241.47698845434</v>
@@ -7293,10 +7293,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X39" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y39" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="40">
@@ -7312,7 +7312,7 @@
         <v>667.0286178416716</v>
       </c>
       <c r="D40" t="n">
-        <v>564.3616113774092</v>
+        <v>564.3616113774091</v>
       </c>
       <c r="E40" t="n">
         <v>463.8981507430893</v>
@@ -7333,7 +7333,7 @@
         <v>187.1890521477366</v>
       </c>
       <c r="K40" t="n">
-        <v>437.6816203490196</v>
+        <v>437.6816203490197</v>
       </c>
       <c r="L40" t="n">
         <v>800.7468040499224</v>
@@ -7366,7 +7366,7 @@
         <v>1725.799256195773</v>
       </c>
       <c r="V40" t="n">
-        <v>1518.56440093796</v>
+        <v>1518.564400937959</v>
       </c>
       <c r="W40" t="n">
         <v>1276.596863849072</v>
@@ -7394,7 +7394,7 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E41" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F41" t="n">
         <v>850.213983755162</v>
@@ -7409,28 +7409,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J41" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K41" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563072</v>
       </c>
       <c r="L41" t="n">
-        <v>1482.778354750621</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M41" t="n">
-        <v>2055.398642844495</v>
+        <v>2536.153662641309</v>
       </c>
       <c r="N41" t="n">
-        <v>2602.177459903277</v>
+        <v>3515.905934867956</v>
       </c>
       <c r="O41" t="n">
-        <v>3482.142110232732</v>
+        <v>4018.878405747293</v>
       </c>
       <c r="P41" t="n">
-        <v>4195.497197679678</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q41" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R41" t="n">
         <v>4778.051722419721</v>
@@ -7464,22 +7464,22 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C42" t="n">
-        <v>796.1397432161924</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D42" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E42" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F42" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G42" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H42" t="n">
         <v>114.5683260468565</v>
@@ -7488,13 +7488,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J42" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390123</v>
       </c>
       <c r="K42" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193594</v>
       </c>
       <c r="L42" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320247</v>
       </c>
       <c r="M42" t="n">
         <v>1241.47698845434</v>
@@ -7530,10 +7530,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X42" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y42" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="43">
@@ -7543,16 +7543,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>788.5151678215054</v>
+        <v>788.5151678215052</v>
       </c>
       <c r="C43" t="n">
-        <v>667.0286178416718</v>
+        <v>667.0286178416716</v>
       </c>
       <c r="D43" t="n">
-        <v>564.3616113774094</v>
+        <v>564.3616113774092</v>
       </c>
       <c r="E43" t="n">
-        <v>463.8981507430895</v>
+        <v>463.8981507430894</v>
       </c>
       <c r="F43" t="n">
         <v>364.4578361932524</v>
@@ -7573,7 +7573,7 @@
         <v>437.6816203490196</v>
       </c>
       <c r="L43" t="n">
-        <v>800.7468040499224</v>
+        <v>800.7468040499223</v>
       </c>
       <c r="M43" t="n">
         <v>1191.409234901878</v>
@@ -7588,7 +7588,7 @@
         <v>2204.270866719035</v>
       </c>
       <c r="Q43" t="n">
-        <v>2328.386548123957</v>
+        <v>2328.386548123956</v>
       </c>
       <c r="R43" t="n">
         <v>2286.005723829558</v>
@@ -7600,19 +7600,19 @@
         <v>1967.452490122057</v>
       </c>
       <c r="U43" t="n">
-        <v>1725.799256195774</v>
+        <v>1725.799256195773</v>
       </c>
       <c r="V43" t="n">
         <v>1518.56440093796</v>
       </c>
       <c r="W43" t="n">
-        <v>1276.596863849073</v>
+        <v>1276.596863849072</v>
       </c>
       <c r="X43" t="n">
-        <v>1096.056945899129</v>
+        <v>1096.056945899128</v>
       </c>
       <c r="Y43" t="n">
-        <v>922.7139997036718</v>
+        <v>922.7139997036716</v>
       </c>
     </row>
     <row r="44">
@@ -7622,49 +7622,49 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C44" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D44" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E44" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F44" t="n">
-        <v>850.2139837551622</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G44" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H44" t="n">
-        <v>137.5579332089256</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I44" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J44" t="n">
-        <v>284.4401654074201</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K44" t="n">
-        <v>618.2595390972667</v>
+        <v>785.6651881176194</v>
       </c>
       <c r="L44" t="n">
-        <v>1069.293752345676</v>
+        <v>1650.184003770974</v>
       </c>
       <c r="M44" t="n">
-        <v>1622.42518767663</v>
+        <v>2628.734306600803</v>
       </c>
       <c r="N44" t="n">
-        <v>2602.177459903276</v>
+        <v>3175.513123659585</v>
       </c>
       <c r="O44" t="n">
-        <v>3482.142110232732</v>
+        <v>3692.333950986038</v>
       </c>
       <c r="P44" t="n">
-        <v>4195.497197679678</v>
+        <v>4405.689038432984</v>
       </c>
       <c r="Q44" t="n">
         <v>4653.975400188666</v>
@@ -7676,22 +7676,22 @@
         <v>4667.761053946816</v>
       </c>
       <c r="T44" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U44" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V44" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W44" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X44" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y44" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="45">
@@ -7701,46 +7701,46 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C45" t="n">
-        <v>796.1397432161925</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D45" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E45" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F45" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G45" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H45" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I45" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J45" t="n">
-        <v>189.2383039390103</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K45" t="n">
-        <v>427.5025029193577</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L45" t="n">
-        <v>794.2006632320232</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M45" t="n">
-        <v>1241.476988454339</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N45" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O45" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P45" t="n">
         <v>2436.460902902952</v>
@@ -7749,10 +7749,10 @@
         <v>2594.102460549552</v>
       </c>
       <c r="R45" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S45" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T45" t="n">
         <v>2271.877220313403</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>788.5151678215054</v>
+        <v>788.5151678215047</v>
       </c>
       <c r="C46" t="n">
-        <v>667.0286178416718</v>
+        <v>667.0286178416711</v>
       </c>
       <c r="D46" t="n">
-        <v>564.3616113774093</v>
+        <v>564.3616113774087</v>
       </c>
       <c r="E46" t="n">
-        <v>463.8981507430894</v>
+        <v>463.898150743089</v>
       </c>
       <c r="F46" t="n">
-        <v>364.4578361932523</v>
+        <v>364.457836193252</v>
       </c>
       <c r="G46" t="n">
-        <v>244.2046325160448</v>
+        <v>244.2046325160446</v>
       </c>
       <c r="H46" t="n">
-        <v>145.4370786819758</v>
+        <v>145.4370786819757</v>
       </c>
       <c r="I46" t="n">
         <v>95.56103444839442</v>
@@ -7807,49 +7807,49 @@
         <v>187.1890521477366</v>
       </c>
       <c r="K46" t="n">
-        <v>437.6816203490197</v>
+        <v>437.6816203490196</v>
       </c>
       <c r="L46" t="n">
-        <v>800.7468040499225</v>
+        <v>800.7468040499224</v>
       </c>
       <c r="M46" t="n">
         <v>1191.409234901878</v>
       </c>
       <c r="N46" t="n">
-        <v>1579.32299686015</v>
+        <v>1579.322996860149</v>
       </c>
       <c r="O46" t="n">
-        <v>1925.15798103297</v>
+        <v>1925.157981032969</v>
       </c>
       <c r="P46" t="n">
         <v>2204.270866719035</v>
       </c>
       <c r="Q46" t="n">
-        <v>2328.386548123957</v>
+        <v>2328.386548123956</v>
       </c>
       <c r="R46" t="n">
-        <v>2286.005723829559</v>
+        <v>2286.005723829557</v>
       </c>
       <c r="S46" t="n">
-        <v>2141.769472604458</v>
+        <v>2141.769472604457</v>
       </c>
       <c r="T46" t="n">
-        <v>1967.452490122057</v>
+        <v>1967.452490122056</v>
       </c>
       <c r="U46" t="n">
-        <v>1725.799256195774</v>
+        <v>1725.799256195773</v>
       </c>
       <c r="V46" t="n">
         <v>1518.56440093796</v>
       </c>
       <c r="W46" t="n">
-        <v>1276.596863849073</v>
+        <v>1276.596863849072</v>
       </c>
       <c r="X46" t="n">
-        <v>1096.056945899129</v>
+        <v>1096.056945899128</v>
       </c>
       <c r="Y46" t="n">
-        <v>922.7139997036719</v>
+        <v>922.7139997036711</v>
       </c>
     </row>
   </sheetData>
@@ -8055,10 +8055,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270195</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K3" t="n">
-        <v>221.0467526719079</v>
+        <v>221.0467526719077</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8292,10 +8292,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K6" t="n">
-        <v>145.0294169142012</v>
+        <v>221.0467526719084</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8529,10 +8529,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270192</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K9" t="n">
-        <v>221.0467526719081</v>
+        <v>221.0467526719084</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8693,16 +8693,16 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N11" t="n">
-        <v>39.4832155777267</v>
+        <v>388.4310778980899</v>
       </c>
       <c r="O11" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
         <v>321.7987081714826</v>
@@ -8930,10 +8930,10 @@
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>19.79750571619286</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>19.79750571619365</v>
       </c>
       <c r="N14" t="n">
         <v>437.3469244119842</v>
@@ -9170,10 +9170,10 @@
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>449.5135334928325</v>
+        <v>19.79750571619297</v>
       </c>
       <c r="N17" t="n">
-        <v>7.630896635344584</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O17" t="n">
         <v>380.8001812627454</v>
@@ -9401,16 +9401,16 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>39.48321557772658</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M20" t="n">
-        <v>19.79750571619297</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>380.8001812627454</v>
@@ -9638,25 +9638,25 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M23" t="n">
-        <v>19.79750571619206</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>380.8001812627454</v>
+        <v>308.4529749292127</v>
       </c>
       <c r="P23" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q23" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>65.71641987298243</v>
@@ -9711,7 +9711,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>9.059419880941277e-13</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -9872,31 +9872,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>46.30618790178727</v>
       </c>
       <c r="K26" t="n">
-        <v>7.630896635344811</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O26" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10109,31 +10109,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>294.8707872801647</v>
       </c>
       <c r="M29" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>7.630896635345266</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O29" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10346,31 +10346,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>19.79750571619365</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N32" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>321.7987081714826</v>
+        <v>282.7041781993175</v>
       </c>
       <c r="Q32" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10586,22 +10586,22 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
-        <v>400.5976869789382</v>
+        <v>5.284192235662317</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N35" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P35" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
         <v>212.3149906599047</v>
@@ -10820,19 +10820,19 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>19.79750571619297</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>437.3469244119842</v>
+        <v>148.4180109385414</v>
       </c>
       <c r="O38" t="n">
         <v>380.8001812627454</v>
@@ -10841,10 +10841,10 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11057,31 +11057,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>39.48321557772681</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O41" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>321.7987081714826</v>
+        <v>57.67224444723854</v>
       </c>
       <c r="Q41" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11294,28 +11294,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>19.79750571619093</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>380.8001812627454</v>
+        <v>13.9882388354705</v>
       </c>
       <c r="P44" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>65.71641987298243</v>
@@ -22547,25 +22547,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>239.6224835521096</v>
+        <v>54.33973249111241</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>74.96621093900464</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22702,7 +22702,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -22714,19 +22714,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923383</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22756,13 +22756,13 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>19.6607792729252</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -22771,7 +22771,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -23413,10 +23413,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>105.0742887270133</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>53.7364564735463</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23650,10 +23650,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>105.0742887270133</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -23671,7 +23671,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>92.48912964370471</v>
       </c>
     </row>
     <row r="17">
@@ -23908,7 +23908,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,13 +23935,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>16.14213605696631</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23950,7 +23950,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>201.4267091368514</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24124,10 +24124,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>105.0742887270133</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24190,7 +24190,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>183.3889571555941</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1407141.832493952</v>
+        <v>1407141.832493951</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1407141.832493951</v>
+        <v>1407141.832493952</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1407141.832493951</v>
+        <v>1407141.832493952</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1407141.832493952</v>
+        <v>1407141.832493951</v>
       </c>
     </row>
     <row r="9">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>727377.4139934067</v>
+        <v>727377.4139934068</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26384,7 +26384,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>37580.10929487408</v>
+        <v>37580.10929487406</v>
       </c>
       <c r="J3" t="n">
         <v>176423.2191925929</v>
@@ -26396,10 +26396,10 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>129642.3148389447</v>
+        <v>129642.3148389448</v>
       </c>
       <c r="N3" t="n">
-        <v>37580.10929487413</v>
+        <v>37580.10929487408</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26424,10 +26424,10 @@
         <v>183348.686857128</v>
       </c>
       <c r="E4" t="n">
-        <v>18148.4923191899</v>
+        <v>18148.49231918994</v>
       </c>
       <c r="F4" t="n">
-        <v>18148.49231918993</v>
+        <v>18148.49231918994</v>
       </c>
       <c r="G4" t="n">
         <v>18148.49231918994</v>
@@ -26436,28 +26436,28 @@
         <v>18148.49231918994</v>
       </c>
       <c r="I4" t="n">
-        <v>33605.65329740898</v>
+        <v>33605.65329740901</v>
       </c>
       <c r="J4" t="n">
         <v>33605.65329740899</v>
       </c>
       <c r="K4" t="n">
-        <v>33605.65329740899</v>
+        <v>33605.653297409</v>
       </c>
       <c r="L4" t="n">
         <v>33605.65329740901</v>
       </c>
       <c r="M4" t="n">
-        <v>33605.65329740898</v>
+        <v>33605.65329740899</v>
       </c>
       <c r="N4" t="n">
-        <v>33605.65329740899</v>
+        <v>33605.65329740902</v>
       </c>
       <c r="O4" t="n">
-        <v>33605.65329740899</v>
+        <v>33605.65329740902</v>
       </c>
       <c r="P4" t="n">
-        <v>33605.65329740895</v>
+        <v>33605.653297409</v>
       </c>
     </row>
     <row r="5">
@@ -26479,13 +26479,13 @@
         <v>96383.51825371366</v>
       </c>
       <c r="F5" t="n">
+        <v>96383.51825371364</v>
+      </c>
+      <c r="G5" t="n">
         <v>96383.51825371366</v>
       </c>
-      <c r="G5" t="n">
-        <v>96383.51825371364</v>
-      </c>
       <c r="H5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="I5" t="n">
         <v>100332.6710141021</v>
@@ -26519,25 +26519,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-779814.6501997564</v>
+        <v>-780149.1167326206</v>
       </c>
       <c r="C6" t="n">
         <v>-266207.7649205374</v>
       </c>
       <c r="D6" t="n">
-        <v>-266207.7649205374</v>
+        <v>-266207.7649205375</v>
       </c>
       <c r="E6" t="n">
-        <v>-841909.4245663102</v>
+        <v>-841976.6200565362</v>
       </c>
       <c r="F6" t="n">
-        <v>-114532.0105729036</v>
+        <v>-114599.2060631294</v>
       </c>
       <c r="G6" t="n">
-        <v>-114532.0105729036</v>
+        <v>-114599.2060631294</v>
       </c>
       <c r="H6" t="n">
-        <v>-114532.0105729036</v>
+        <v>-114599.2060631294</v>
       </c>
       <c r="I6" t="n">
         <v>-171518.4336063852</v>
@@ -26552,10 +26552,10 @@
         <v>-133938.3243115111</v>
       </c>
       <c r="M6" t="n">
-        <v>-263580.6391504558</v>
+        <v>-263580.6391504559</v>
       </c>
       <c r="N6" t="n">
-        <v>-171518.4336063853</v>
+        <v>-171518.4336063852</v>
       </c>
       <c r="O6" t="n">
         <v>-133938.3243115111</v>
@@ -26704,28 +26704,28 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="J2" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="K2" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="L2" t="n">
+        <v>46.97513661859257</v>
+      </c>
+      <c r="M2" t="n">
+        <v>46.9751366185926</v>
+      </c>
+      <c r="N2" t="n">
+        <v>46.97513661859261</v>
+      </c>
+      <c r="O2" t="n">
         <v>46.97513661859258</v>
       </c>
-      <c r="M2" t="n">
-        <v>46.97513661859252</v>
-      </c>
-      <c r="N2" t="n">
+      <c r="P2" t="n">
         <v>46.97513661859259</v>
-      </c>
-      <c r="O2" t="n">
-        <v>46.97513661859255</v>
-      </c>
-      <c r="P2" t="n">
-        <v>46.9751366185925</v>
       </c>
     </row>
     <row r="3">
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>377.7436642170867</v>
+      </c>
+      <c r="C3" t="n">
         <v>377.7436642170866</v>
       </c>
-      <c r="C3" t="n">
-        <v>377.7436642170867</v>
-      </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26777,7 +26777,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="P3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
     </row>
     <row r="4">
@@ -26926,7 +26926,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26938,10 +26938,10 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="N2" t="n">
-        <v>46.97513661859266</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>712.0330363762116</v>
+        <v>712.0330363762117</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545554</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503744</v>
+        <v>520.2256578503747</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27163,7 +27163,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -27382,13 +27382,13 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>115.0605580685733</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27436,7 +27436,7 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -27445,7 +27445,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>385.2839220047065</v>
       </c>
     </row>
     <row r="3">
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27546,19 +27546,19 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853701</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,19 +27582,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>6.771212764859513</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -27603,7 +27603,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27616,22 +27616,22 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>217.9905321479588</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
         <v>400</v>
       </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27664,25 +27664,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>101.6178689117502</v>
       </c>
     </row>
     <row r="6">
@@ -27777,7 +27777,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27792,10 +27792,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,7 +27816,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -27828,13 +27828,13 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>242.6756726418388</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>168.5173763857505</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>97.87417973431064</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>317.135912981819</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,25 +27901,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28029,10 +28029,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,10 +28053,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28065,13 +28065,13 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>46.76331713866892</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>157.4983735401875</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="C25" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="D25" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="E25" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="F25" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="G25" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="H25" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="I25" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="J25" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="K25" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="L25" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="M25" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="N25" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="O25" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="P25" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="Q25" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="R25" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="S25" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="T25" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="U25" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="V25" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="W25" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="X25" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="Y25" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
     </row>
     <row r="26">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="C28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="D28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="E28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="G28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="H28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="I28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="J28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="K28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="L28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="M28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="N28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="O28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="P28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Q28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="R28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="S28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="T28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="U28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="V28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="W28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="X28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Y28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
     <row r="29">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="C31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="D31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="E31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="G31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="H31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="I31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="J31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="K31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="L31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="M31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="N31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="O31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="P31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Q31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="R31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="S31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="T31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="U31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="V31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="W31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="X31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Y31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="C34" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="D34" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="E34" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="F34" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="G34" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="H34" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="I34" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="J34" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="K34" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="L34" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="M34" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="N34" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="O34" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="P34" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Q34" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="R34" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="S34" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="T34" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="U34" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="V34" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="W34" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="X34" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Y34" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>46.97513661859252</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="C37" t="n">
-        <v>46.97513661859252</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="D37" t="n">
-        <v>46.97513661859252</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="E37" t="n">
-        <v>46.97513661859252</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="F37" t="n">
-        <v>46.97513661859252</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="G37" t="n">
-        <v>46.97513661859252</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="H37" t="n">
-        <v>46.97513661859252</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="I37" t="n">
-        <v>46.97513661859252</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="J37" t="n">
-        <v>46.97513661859252</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="K37" t="n">
-        <v>46.97513661859252</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="L37" t="n">
-        <v>46.97513661859252</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="M37" t="n">
-        <v>46.97513661859252</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="N37" t="n">
-        <v>46.97513661859252</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="O37" t="n">
-        <v>46.97513661859252</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="P37" t="n">
-        <v>46.97513661859252</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="Q37" t="n">
-        <v>46.97513661859252</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="R37" t="n">
-        <v>46.97513661859252</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="S37" t="n">
-        <v>46.97513661859252</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="T37" t="n">
-        <v>46.97513661859252</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="U37" t="n">
-        <v>46.97513661859252</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="V37" t="n">
-        <v>46.97513661859252</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="W37" t="n">
-        <v>46.97513661859252</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="X37" t="n">
-        <v>46.97513661859252</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="Y37" t="n">
-        <v>46.97513661859252</v>
+        <v>46.9751366185926</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="C40" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="D40" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="E40" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="F40" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="G40" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="H40" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="I40" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="J40" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="K40" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="L40" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="M40" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="N40" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="O40" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="P40" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="Q40" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="R40" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="S40" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="T40" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="U40" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="V40" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="W40" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="X40" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="Y40" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859261</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="C43" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="D43" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="E43" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="F43" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="G43" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="H43" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="I43" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="J43" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="K43" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="L43" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="M43" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="N43" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="O43" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="P43" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="Q43" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="R43" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="S43" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="T43" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="U43" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="V43" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="W43" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="X43" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="Y43" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>46.9751366185925</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="C46" t="n">
-        <v>46.9751366185925</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="D46" t="n">
-        <v>46.9751366185925</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="E46" t="n">
-        <v>46.9751366185925</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F46" t="n">
-        <v>46.9751366185925</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="G46" t="n">
-        <v>46.9751366185925</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="H46" t="n">
-        <v>46.9751366185925</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="I46" t="n">
-        <v>46.9751366185925</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="J46" t="n">
-        <v>46.9751366185925</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="K46" t="n">
-        <v>46.9751366185925</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="L46" t="n">
-        <v>46.9751366185925</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="M46" t="n">
-        <v>46.9751366185925</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="N46" t="n">
-        <v>46.9751366185925</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="O46" t="n">
-        <v>46.9751366185925</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="P46" t="n">
-        <v>46.9751366185925</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Q46" t="n">
-        <v>46.9751366185925</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="R46" t="n">
-        <v>46.9751366185925</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="S46" t="n">
-        <v>46.9751366185925</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="T46" t="n">
-        <v>46.9751366185925</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="U46" t="n">
-        <v>46.9751366185925</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="V46" t="n">
-        <v>46.9751366185925</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="W46" t="n">
-        <v>46.9751366185925</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="X46" t="n">
-        <v>46.9751366185925</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Y46" t="n">
-        <v>46.9751366185925</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
   </sheetData>
@@ -31039,46 +31039,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q2" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,19 +31197,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31221,22 +31221,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U4" t="n">
         <v>0.0371551145131561</v>
@@ -31276,46 +31276,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,19 +31434,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31458,22 +31458,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31513,46 +31513,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31619,22 +31619,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31671,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,22 +31695,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31987,43 +31987,43 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H14" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I14" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J14" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K14" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R14" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T14" t="n">
         <v>19.1778794245112</v>
@@ -32072,40 +32072,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I15" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K15" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O15" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R15" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U15" t="n">
         <v>0.1542136840462215</v>
@@ -32145,13 +32145,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H16" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I16" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J16" t="n">
         <v>138.937596729739</v>
@@ -32160,16 +32160,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L16" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M16" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P16" t="n">
         <v>237.6785118802169</v>
@@ -32178,16 +32178,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32549,7 +32549,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K21" t="n">
         <v>378.5123470353157</v>
@@ -32698,43 +32698,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H23" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I23" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J23" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K23" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L23" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M23" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N23" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O23" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P23" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q23" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R23" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S23" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T23" t="n">
         <v>19.1778794245112</v>
@@ -32783,40 +32783,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I24" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J24" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K24" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L24" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M24" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N24" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O24" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P24" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R24" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S24" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T24" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U24" t="n">
         <v>0.1542136840462215</v>
@@ -32856,13 +32856,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H25" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I25" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J25" t="n">
         <v>138.937596729739</v>
@@ -32871,16 +32871,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L25" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M25" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N25" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O25" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P25" t="n">
         <v>237.6785118802169</v>
@@ -32889,16 +32889,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R25" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S25" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T25" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33023,10 +33023,10 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J27" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K27" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L27" t="n">
         <v>508.9565619138796</v>
@@ -33172,43 +33172,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H29" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I29" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J29" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K29" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L29" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M29" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N29" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O29" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P29" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q29" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R29" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S29" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T29" t="n">
         <v>19.1778794245112</v>
@@ -33257,40 +33257,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I30" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J30" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K30" t="n">
-        <v>378.5123470353163</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L30" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M30" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N30" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O30" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P30" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R30" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S30" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T30" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U30" t="n">
         <v>0.1542136840462215</v>
@@ -33330,13 +33330,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H31" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I31" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J31" t="n">
         <v>138.937596729739</v>
@@ -33345,16 +33345,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L31" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M31" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N31" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O31" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P31" t="n">
         <v>237.6785118802169</v>
@@ -33363,16 +33363,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R31" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S31" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T31" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,43 +33409,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H32" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I32" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J32" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K32" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L32" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M32" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N32" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O32" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P32" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q32" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R32" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S32" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T32" t="n">
         <v>19.1778794245112</v>
@@ -33494,40 +33494,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I33" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J33" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026444</v>
       </c>
       <c r="K33" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L33" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M33" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N33" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O33" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P33" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R33" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S33" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T33" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U33" t="n">
         <v>0.1542136840462215</v>
@@ -33567,13 +33567,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H34" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I34" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J34" t="n">
         <v>138.937596729739</v>
@@ -33582,16 +33582,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L34" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M34" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N34" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O34" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P34" t="n">
         <v>237.6785118802169</v>
@@ -33600,16 +33600,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R34" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S34" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T34" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33883,43 +33883,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H38" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I38" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J38" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K38" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L38" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M38" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N38" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O38" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P38" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q38" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R38" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S38" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T38" t="n">
         <v>19.1778794245112</v>
@@ -33968,40 +33968,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I39" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J39" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026444</v>
       </c>
       <c r="K39" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L39" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M39" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N39" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O39" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P39" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S39" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T39" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U39" t="n">
         <v>0.1542136840462215</v>
@@ -34041,13 +34041,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H40" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I40" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J40" t="n">
         <v>138.937596729739</v>
@@ -34056,16 +34056,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L40" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M40" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N40" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O40" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P40" t="n">
         <v>237.6785118802169</v>
@@ -34074,16 +34074,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R40" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S40" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T40" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,43 +34120,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H41" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I41" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J41" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K41" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L41" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M41" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N41" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O41" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P41" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q41" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R41" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S41" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T41" t="n">
         <v>19.1778794245112</v>
@@ -34205,40 +34205,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I42" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J42" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026444</v>
       </c>
       <c r="K42" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L42" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M42" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N42" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O42" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P42" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R42" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S42" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T42" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U42" t="n">
         <v>0.1542136840462215</v>
@@ -34278,13 +34278,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H43" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I43" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J43" t="n">
         <v>138.937596729739</v>
@@ -34293,16 +34293,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L43" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M43" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N43" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O43" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P43" t="n">
         <v>237.6785118802169</v>
@@ -34311,16 +34311,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R43" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S43" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T43" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34357,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.3810118616816</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H44" t="n">
-        <v>44.8670377284467</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I44" t="n">
         <v>168.89895979748</v>
       </c>
       <c r="J44" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K44" t="n">
-        <v>557.2811376003813</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L44" t="n">
-        <v>691.3565293623196</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M44" t="n">
-        <v>769.2673490574997</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N44" t="n">
-        <v>781.7148990095027</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O44" t="n">
-        <v>738.1512123099062</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P44" t="n">
-        <v>629.9949819746416</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q44" t="n">
-        <v>473.0999946781692</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R44" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S44" t="n">
-        <v>99.83230779806955</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T44" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U44" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H45" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I45" t="n">
-        <v>80.70516131752261</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026424</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K45" t="n">
-        <v>378.5123470353159</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138798</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233477</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837927</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O45" t="n">
-        <v>557.7086478970252</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987488</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R45" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S45" t="n">
-        <v>43.53966346238318</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T45" t="n">
-        <v>9.448158375898503</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1542136840462216</v>
+        <v>0.1542136840462215</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,43 +34518,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H46" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I46" t="n">
-        <v>59.09805451742022</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J46" t="n">
-        <v>138.9375967297391</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K46" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L46" t="n">
-        <v>292.1673469098821</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M46" t="n">
-        <v>308.0495024316434</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N46" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O46" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P46" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q46" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R46" t="n">
-        <v>88.3612387071222</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S46" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T46" t="n">
-        <v>8.396640152112299</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U46" t="n">
         <v>0.1071911508780295</v>
@@ -34696,25 +34696,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q2" t="n">
         <v>153.9975062898689</v>
@@ -34778,7 +34778,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>214.4070918624591</v>
+        <v>214.4070918624589</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34787,13 +34787,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34857,7 +34857,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34872,7 +34872,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34933,25 +34933,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35012,10 +35012,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>138.3897561047524</v>
+        <v>214.4070918624596</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35024,13 +35024,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35094,7 +35094,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35109,7 +35109,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35170,25 +35170,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35252,7 +35252,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>214.4070918624593</v>
+        <v>214.4070918624596</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
@@ -35261,13 +35261,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35331,7 +35331,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35346,7 +35346,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35413,16 +35413,16 @@
         <v>337.1912865554005</v>
       </c>
       <c r="L11" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N11" t="n">
-        <v>591.7850509906382</v>
+        <v>940.7329133110014</v>
       </c>
       <c r="O11" t="n">
-        <v>888.8531821509645</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P11" t="n">
         <v>720.5606943908545</v>
@@ -35644,28 +35644,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L14" t="n">
-        <v>475.387620108525</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302268</v>
+        <v>558.7186215464202</v>
       </c>
       <c r="N14" t="n">
-        <v>989.6487598248956</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O14" t="n">
-        <v>888.8531821509645</v>
+        <v>888.8531821509644</v>
       </c>
       <c r="P14" t="n">
-        <v>720.5606943908545</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q14" t="n">
-        <v>463.1092954636242</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R14" t="n">
         <v>125.3296184152072</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K15" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P15" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,10 +35802,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K16" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L16" t="n">
         <v>319.7573721701981</v>
@@ -35817,13 +35817,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O16" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P16" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q16" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35890,10 +35890,10 @@
         <v>455.5901143923322</v>
       </c>
       <c r="M17" t="n">
-        <v>988.4346493230593</v>
+        <v>558.7186215464197</v>
       </c>
       <c r="N17" t="n">
-        <v>559.9327320482561</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O17" t="n">
         <v>888.8531821509645</v>
@@ -36121,16 +36121,16 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K20" t="n">
-        <v>337.1912865554005</v>
+        <v>376.6745021331271</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M20" t="n">
-        <v>558.7186215464197</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N20" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O20" t="n">
         <v>888.8531821509645</v>
@@ -36197,7 +36197,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K21" t="n">
         <v>240.6709080609567</v>
@@ -36355,28 +36355,28 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K23" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L23" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427824</v>
       </c>
       <c r="M23" t="n">
-        <v>558.7186215464188</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N23" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O23" t="n">
-        <v>888.8531821509645</v>
+        <v>816.5059758174317</v>
       </c>
       <c r="P23" t="n">
-        <v>720.5606943908545</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q23" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R23" t="n">
         <v>125.3296184152072</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>94.62350453597716</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K24" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L24" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M24" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N24" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O24" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P24" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36522,16 +36522,16 @@
         <v>366.7325087887907</v>
       </c>
       <c r="M25" t="n">
-        <v>394.6085160120764</v>
+        <v>394.6085160120763</v>
       </c>
       <c r="N25" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O25" t="n">
         <v>349.3282668412323</v>
       </c>
       <c r="P25" t="n">
-        <v>281.932207763703</v>
+        <v>281.9322077637029</v>
       </c>
       <c r="Q25" t="n">
         <v>125.3693751564862</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>190.7870009687126</v>
+        <v>237.0931888704998</v>
       </c>
       <c r="K26" t="n">
-        <v>344.8221831907453</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L26" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M26" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N26" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O26" t="n">
-        <v>888.8531821509645</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P26" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q26" t="n">
         <v>463.1092954636242</v>
       </c>
       <c r="R26" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,10 +36671,10 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597718</v>
       </c>
       <c r="K27" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L27" t="n">
         <v>370.4021821340054</v>
@@ -36750,10 +36750,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>92.55355323165877</v>
+        <v>92.55355323165881</v>
       </c>
       <c r="K28" t="n">
-        <v>253.0227961629121</v>
+        <v>253.0227961629122</v>
       </c>
       <c r="L28" t="n">
         <v>366.7325087887907</v>
@@ -36762,7 +36762,7 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N28" t="n">
-        <v>391.8320827861326</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O28" t="n">
         <v>349.3282668412323</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>190.7870009687125</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K29" t="n">
-        <v>337.1912865554004</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L29" t="n">
-        <v>455.5901143923319</v>
+        <v>750.4609016724969</v>
       </c>
       <c r="M29" t="n">
-        <v>988.434649323059</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N29" t="n">
-        <v>559.9327320482565</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O29" t="n">
-        <v>888.8531821509644</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P29" t="n">
-        <v>720.5606943908542</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q29" t="n">
-        <v>463.1092954636241</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R29" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,28 +36908,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K30" t="n">
-        <v>240.6709080609573</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L30" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M30" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N30" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O30" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P30" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,25 +36987,25 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>92.55355323165874</v>
+        <v>92.55355323165881</v>
       </c>
       <c r="K31" t="n">
-        <v>253.0227961629121</v>
+        <v>253.0227961629122</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7325087887906</v>
+        <v>366.7325087887907</v>
       </c>
       <c r="M31" t="n">
-        <v>394.6085160120763</v>
+        <v>394.6085160120764</v>
       </c>
       <c r="N31" t="n">
-        <v>391.8320827861326</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O31" t="n">
         <v>349.3282668412323</v>
       </c>
       <c r="P31" t="n">
-        <v>281.9322077637029</v>
+        <v>281.932207763703</v>
       </c>
       <c r="Q31" t="n">
         <v>125.3693751564862</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K32" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L32" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M32" t="n">
-        <v>558.7186215464204</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N32" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O32" t="n">
-        <v>888.8531821509645</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P32" t="n">
-        <v>720.5606943908545</v>
+        <v>681.4661644186891</v>
       </c>
       <c r="Q32" t="n">
-        <v>463.1092954636242</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R32" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,28 +37145,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597767</v>
       </c>
       <c r="K33" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L33" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M33" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N33" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O33" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P33" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>92.55355323165881</v>
+        <v>92.55355323165877</v>
       </c>
       <c r="K34" t="n">
         <v>253.0227961629121</v>
@@ -37233,16 +37233,16 @@
         <v>366.7325087887907</v>
       </c>
       <c r="M34" t="n">
-        <v>394.6085160120764</v>
+        <v>394.6085160120763</v>
       </c>
       <c r="N34" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O34" t="n">
         <v>349.3282668412323</v>
       </c>
       <c r="P34" t="n">
-        <v>281.932207763703</v>
+        <v>281.9322077637029</v>
       </c>
       <c r="Q34" t="n">
         <v>125.3693751564862</v>
@@ -37306,22 +37306,22 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K35" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L35" t="n">
-        <v>856.1878013712703</v>
+        <v>460.8743066279945</v>
       </c>
       <c r="M35" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N35" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O35" t="n">
-        <v>508.0530008882191</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P35" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q35" t="n">
         <v>463.1092954636242</v>
@@ -37461,28 +37461,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>92.55355323165875</v>
+        <v>92.55355323165882</v>
       </c>
       <c r="K37" t="n">
-        <v>253.0227961629121</v>
+        <v>253.0227961629122</v>
       </c>
       <c r="L37" t="n">
         <v>366.7325087887907</v>
       </c>
       <c r="M37" t="n">
-        <v>394.6085160120763</v>
+        <v>394.6085160120764</v>
       </c>
       <c r="N37" t="n">
-        <v>391.8320827861326</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O37" t="n">
-        <v>349.3282668412323</v>
+        <v>349.3282668412324</v>
       </c>
       <c r="P37" t="n">
-        <v>281.9322077637029</v>
+        <v>281.932207763703</v>
       </c>
       <c r="Q37" t="n">
-        <v>125.3693751564862</v>
+        <v>125.3693751564863</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37540,31 +37540,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K38" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L38" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427824</v>
       </c>
       <c r="M38" t="n">
-        <v>558.7186215464197</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N38" t="n">
-        <v>989.6487598248956</v>
+        <v>700.7198463514527</v>
       </c>
       <c r="O38" t="n">
-        <v>888.8531821509645</v>
+        <v>888.8531821509644</v>
       </c>
       <c r="P38" t="n">
-        <v>720.5606943908545</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q38" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R38" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,28 +37619,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597767</v>
       </c>
       <c r="K39" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L39" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M39" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N39" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O39" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P39" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37777,31 +37777,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K41" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L41" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M41" t="n">
-        <v>578.4043314079536</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N41" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O41" t="n">
-        <v>888.8531821509645</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P41" t="n">
-        <v>720.5606943908545</v>
+        <v>456.4342306666102</v>
       </c>
       <c r="Q41" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R41" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,28 +37856,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597767</v>
       </c>
       <c r="K42" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L42" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M42" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N42" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O42" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P42" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37944,16 +37944,16 @@
         <v>366.7325087887907</v>
       </c>
       <c r="M43" t="n">
-        <v>394.6085160120764</v>
+        <v>394.6085160120763</v>
       </c>
       <c r="N43" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O43" t="n">
         <v>349.3282668412323</v>
       </c>
       <c r="P43" t="n">
-        <v>281.932207763703</v>
+        <v>281.9322077637029</v>
       </c>
       <c r="Q43" t="n">
         <v>125.3693751564862</v>
@@ -38014,31 +38014,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>190.7870009687127</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K44" t="n">
-        <v>337.1912865554007</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L44" t="n">
-        <v>455.5901143923324</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M44" t="n">
-        <v>558.7186215464179</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N44" t="n">
-        <v>989.6487598248959</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O44" t="n">
-        <v>888.8531821509648</v>
+        <v>522.0412397236896</v>
       </c>
       <c r="P44" t="n">
-        <v>720.5606943908547</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q44" t="n">
-        <v>463.1092954636244</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R44" t="n">
-        <v>125.3296184152073</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,28 +38093,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.62350453597567</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K45" t="n">
-        <v>240.6709080609569</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M45" t="n">
-        <v>451.7942679013294</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N45" t="n">
-        <v>478.3061046004594</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O45" t="n">
-        <v>415.1124034525808</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P45" t="n">
-        <v>313.6359509859627</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.2338966127273</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,10 +38172,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>92.55355323165878</v>
+        <v>92.55355323165881</v>
       </c>
       <c r="K46" t="n">
-        <v>253.0227961629122</v>
+        <v>253.0227961629121</v>
       </c>
       <c r="L46" t="n">
         <v>366.7325087887907</v>
@@ -38187,13 +38187,13 @@
         <v>391.8320827861327</v>
       </c>
       <c r="O46" t="n">
-        <v>349.3282668412324</v>
+        <v>349.3282668412323</v>
       </c>
       <c r="P46" t="n">
         <v>281.932207763703</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.3693751564862</v>
+        <v>125.3693751564863</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
